--- a/Base_datos_sintesis modelo 3_progr_no progr.xlsx
+++ b/Base_datos_sintesis modelo 3_progr_no progr.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upbeduco-my.sharepoint.com/personal/juanca_suarez_upb_edu_co/Documents/Documentos/Doctorado_UPB/Pasantia 2022/Procesamiento JAMOVE tesis_marzo_junio 2022 pasantia/Solicitud Andres_aprendizaje maquina/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{35CD4BE4-C4B0-4737-AB85-1ACE81813797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{029D1D96-7448-4623-A921-4EA85B751F94}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="13_ncr:1_{35CD4BE4-C4B0-4737-AB85-1ACE81813797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8D248AE-100D-44DA-8C2A-211863EC0C70}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D3EFD2C7-FD23-4654-91AA-86827E013FF0}"/>
   </bookViews>
@@ -36,8 +36,35 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={F073F3BD-88D9-47EE-9FBD-80C6D758C49C}</author>
+    <author>tc={A46479B4-81FF-42B9-885B-6DB72CA94DC7}</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{F073F3BD-88D9-47EE-9FBD-80C6D758C49C}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    Antecedente de traqueostomia por más de 6 meses</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="1" shapeId="0" xr:uid="{A46479B4-81FF-42B9-885B-6DB72CA94DC7}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    Síntoma de náuseas</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="100">
   <si>
     <t>Codigo paciente</t>
   </si>
@@ -300,27 +327,6 @@
     <t>p114</t>
   </si>
   <si>
-    <t>Categoria progresiva/no progresiva</t>
-  </si>
-  <si>
-    <t>¿traqueostomia por más de 6 meses?</t>
-  </si>
-  <si>
-    <t>*Náuseas actual?</t>
-  </si>
-  <si>
-    <t>p1_Y10_std_MYOP_RSH***</t>
-  </si>
-  <si>
-    <t>p2_S_mean_Shannon_SI***</t>
-  </si>
-  <si>
-    <t>p3_Art_voc_D2MFCC4_mean_A_POS***</t>
-  </si>
-  <si>
-    <t>p3_Arti_voc_D2MFCC8_std_O_PRE</t>
-  </si>
-  <si>
     <t>no progresivas 0</t>
   </si>
   <si>
@@ -331,13 +337,40 @@
   </si>
   <si>
     <t>Si</t>
+  </si>
+  <si>
+    <t>Categoria_progr_no progr</t>
+  </si>
+  <si>
+    <t>Nauseas</t>
+  </si>
+  <si>
+    <t>traqueostomia</t>
+  </si>
+  <si>
+    <t>p1_Y10_std_MYOP_RSH</t>
+  </si>
+  <si>
+    <t>Protocolo 1: sEMG</t>
+  </si>
+  <si>
+    <t>p2_S_mean_Shannon_SI</t>
+  </si>
+  <si>
+    <t>Protocolo 2: sEMG + ACC</t>
+  </si>
+  <si>
+    <t>p3_Art_voc_D2MFCC4_mean_A_POS</t>
+  </si>
+  <si>
+    <t>Protocolo 3: voz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -367,19 +400,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -409,7 +442,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -427,17 +460,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -454,6 +484,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Juan Camilo Suarez Escudero" id="{0010C522-A699-4D68-B24F-208462E5A0C3}" userId="Juan Camilo Suarez Escudero" providerId="None"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -751,16 +787,27 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A2" dT="2022-08-10T12:46:14.88" personId="{0010C522-A699-4D68-B24F-208462E5A0C3}" id="{F073F3BD-88D9-47EE-9FBD-80C6D758C49C}">
+    <text>Antecedente de traqueostomia por más de 6 meses</text>
+  </threadedComment>
+  <threadedComment ref="A3" dT="2022-08-10T12:45:31.31" personId="{0010C522-A699-4D68-B24F-208462E5A0C3}" id="{A46479B4-81FF-42B9-885B-6DB72CA94DC7}">
+    <text>Síntoma de náuseas</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3F35857-8189-4823-9D7D-3C3CFF88F672}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:H87"/>
+  <dimension ref="A1:G87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -770,33 +817,30 @@
     <col min="5" max="5" width="8.7265625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="8" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="8" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="G1" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -818,11 +862,8 @@
       <c r="G2">
         <v>0.10582538488728969</v>
       </c>
-      <c r="H2">
-        <v>11.74281457820269</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -844,11 +885,8 @@
       <c r="G3">
         <v>-0.29909868870308259</v>
       </c>
-      <c r="H3">
-        <v>12.31455085841143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -870,11 +908,8 @@
       <c r="G4">
         <v>-5.1560781020968283E-2</v>
       </c>
-      <c r="H4">
-        <v>10.400995396785881</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -896,11 +931,8 @@
       <c r="G5">
         <v>0.48936680595787613</v>
       </c>
-      <c r="H5">
-        <v>11.881955379118191</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -922,11 +954,8 @@
       <c r="G6">
         <v>8.6305916930872126E-2</v>
       </c>
-      <c r="H6">
-        <v>8.8894144566698063</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -948,11 +977,8 @@
       <c r="G7">
         <v>-1.4215907484336199E-2</v>
       </c>
-      <c r="H7">
-        <v>13.19923710997921</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -974,11 +1000,8 @@
       <c r="G8">
         <v>-2.032805975384655E-2</v>
       </c>
-      <c r="H8">
-        <v>12.755362647614289</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -997,11 +1020,8 @@
       <c r="G9">
         <v>0.15985629606511251</v>
       </c>
-      <c r="H9">
-        <v>10.68828350725374</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1023,11 +1043,8 @@
       <c r="G10">
         <v>4.7239823915129209E-2</v>
       </c>
-      <c r="H10">
-        <v>10.92183299012739</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1049,11 +1066,8 @@
       <c r="G11">
         <v>0.1052634828752726</v>
       </c>
-      <c r="H11">
-        <v>11.31056760075802</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -1072,11 +1086,8 @@
       <c r="G12">
         <v>0.34698776658149239</v>
       </c>
-      <c r="H12">
-        <v>11.712716017654691</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -1098,11 +1109,8 @@
       <c r="G13">
         <v>4.830434579948778E-2</v>
       </c>
-      <c r="H13">
-        <v>10.2648554306933</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -1124,11 +1132,8 @@
       <c r="G14">
         <v>0.1021871341518438</v>
       </c>
-      <c r="H14">
-        <v>14.41855098409131</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -1150,11 +1155,8 @@
       <c r="G15">
         <v>-0.56923753790978304</v>
       </c>
-      <c r="H15">
-        <v>16.73035162057484</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -1176,11 +1178,8 @@
       <c r="G16">
         <v>0.1260940256807547</v>
       </c>
-      <c r="H16">
-        <v>11.626242675944081</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -1202,11 +1201,8 @@
       <c r="G17">
         <v>-2.576173410683032E-2</v>
       </c>
-      <c r="H17">
-        <v>11.71286248288402</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -1228,11 +1224,8 @@
       <c r="G18">
         <v>0.1944074128931135</v>
       </c>
-      <c r="H18">
-        <v>10.850370292321459</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -1254,11 +1247,8 @@
       <c r="G19">
         <v>8.7489495423417593E-2</v>
       </c>
-      <c r="H19">
-        <v>9.9586172562231603</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -1277,11 +1267,8 @@
       <c r="G20">
         <v>-3.3910504360772607E-2</v>
       </c>
-      <c r="H20">
-        <v>10.84707999658543</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -1303,11 +1290,8 @@
       <c r="G21">
         <v>0.1086785833299176</v>
       </c>
-      <c r="H21">
-        <v>10.378144569287929</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -1329,11 +1313,8 @@
       <c r="G22">
         <v>0.1082693973732078</v>
       </c>
-      <c r="H22">
-        <v>13.91160649101384</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -1352,11 +1333,8 @@
       <c r="G23">
         <v>6.3146936854038785E-2</v>
       </c>
-      <c r="H23">
-        <v>13.98736247991539</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -1378,11 +1356,8 @@
       <c r="G24">
         <v>7.7829189915429942E-3</v>
       </c>
-      <c r="H24">
-        <v>14.691100611294541</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
@@ -1404,11 +1379,8 @@
       <c r="G25">
         <v>-0.12933275524143609</v>
       </c>
-      <c r="H25">
-        <v>12.152465274324181</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -1430,11 +1402,8 @@
       <c r="G26">
         <v>0.29445607602125828</v>
       </c>
-      <c r="H26">
-        <v>10.956172168321009</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
@@ -1456,11 +1425,8 @@
       <c r="G27">
         <v>9.5008581303997766E-2</v>
       </c>
-      <c r="H27">
-        <v>9.6972270929683564</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -1482,11 +1448,8 @@
       <c r="G28">
         <v>-0.1553751368481732</v>
       </c>
-      <c r="H28">
-        <v>9.4652250428648053</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -1508,11 +1471,8 @@
       <c r="G29">
         <v>0.3487579141782875</v>
       </c>
-      <c r="H29">
-        <v>10.54955413468123</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
@@ -1531,11 +1491,8 @@
       <c r="G30">
         <v>-7.1875274301032244E-2</v>
       </c>
-      <c r="H30">
-        <v>8.6578573018447855</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
@@ -1554,11 +1511,8 @@
       <c r="G31">
         <v>-1.116243567165867E-2</v>
       </c>
-      <c r="H31">
-        <v>14.40584912915593</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
@@ -1578,7 +1532,7 @@
         <v>-3.1835868594506529</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
@@ -1600,11 +1554,8 @@
       <c r="G33">
         <v>-6.17604627319846E-2</v>
       </c>
-      <c r="H33">
-        <v>11.314557257850471</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>64</v>
       </c>
@@ -1626,11 +1577,8 @@
       <c r="G34">
         <v>-7.143824121394643E-2</v>
       </c>
-      <c r="H34">
-        <v>13.093949960871271</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
@@ -1649,11 +1597,8 @@
       <c r="G35">
         <v>0.48202659532977338</v>
       </c>
-      <c r="H35">
-        <v>13.988219413448009</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>34</v>
       </c>
@@ -1675,11 +1620,8 @@
       <c r="G36">
         <v>2.8240427724083899E-2</v>
       </c>
-      <c r="H36">
-        <v>13.10028759810189</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>35</v>
       </c>
@@ -1701,11 +1643,8 @@
       <c r="G37">
         <v>-5.8609283306287653E-2</v>
       </c>
-      <c r="H37">
-        <v>12.168896301615829</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>36</v>
       </c>
@@ -1727,11 +1666,8 @@
       <c r="G38">
         <v>1.181004632301255E-2</v>
       </c>
-      <c r="H38">
-        <v>13.585849395156821</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>37</v>
       </c>
@@ -1754,7 +1690,7 @@
         <v>0.16681030386352469</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>38</v>
       </c>
@@ -1776,11 +1712,8 @@
       <c r="G40">
         <v>-3.1141271421606109E-2</v>
       </c>
-      <c r="H40">
-        <v>11.416952771810781</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>39</v>
       </c>
@@ -1802,11 +1735,8 @@
       <c r="G41">
         <v>7.8282717945579575E-2</v>
       </c>
-      <c r="H41">
-        <v>11.282003845042549</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>40</v>
       </c>
@@ -1828,11 +1758,8 @@
       <c r="G42">
         <v>9.8384314634571493E-3</v>
       </c>
-      <c r="H42">
-        <v>12.1961732673741</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>41</v>
       </c>
@@ -1854,11 +1781,8 @@
       <c r="G43">
         <v>-8.1512901497233878E-2</v>
       </c>
-      <c r="H43">
-        <v>11.342926777749611</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>42</v>
       </c>
@@ -1880,11 +1804,8 @@
       <c r="G44">
         <v>0.215938713469396</v>
       </c>
-      <c r="H44">
-        <v>13.552383397536181</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>43</v>
       </c>
@@ -1906,11 +1827,8 @@
       <c r="G45">
         <v>0.31751132396716741</v>
       </c>
-      <c r="H45">
-        <v>10.32722751215212</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>44</v>
       </c>
@@ -1932,11 +1850,8 @@
       <c r="G46">
         <v>6.2373710688880006E-3</v>
       </c>
-      <c r="H46">
-        <v>11.33251299312608</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>45</v>
       </c>
@@ -1958,11 +1873,8 @@
       <c r="G47">
         <v>0.24633410455855159</v>
       </c>
-      <c r="H47">
-        <v>12.164863579441301</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>46</v>
       </c>
@@ -1984,11 +1896,8 @@
       <c r="G48">
         <v>-0.19706363708845701</v>
       </c>
-      <c r="H48">
-        <v>14.32244482939063</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>47</v>
       </c>
@@ -2005,7 +1914,7 @@
         <v>-3.4164548782253892</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>48</v>
       </c>
@@ -2027,11 +1936,8 @@
       <c r="G50">
         <v>-0.12567166166475749</v>
       </c>
-      <c r="H50">
-        <v>13.872814613687691</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>49</v>
       </c>
@@ -2051,7 +1957,7 @@
         <v>-3.5037345591460181</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>50</v>
       </c>
@@ -2068,7 +1974,7 @@
         <v>5.4693509272206092E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>51</v>
       </c>
@@ -2088,7 +1994,7 @@
         <v>-3.669147770937252</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>52</v>
       </c>
@@ -2104,11 +2010,8 @@
       <c r="F54">
         <v>-3.5638522145045508</v>
       </c>
-      <c r="H54">
-        <v>10.63771246560151</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>53</v>
       </c>
@@ -2130,11 +2033,8 @@
       <c r="G55">
         <v>0.15327022855033989</v>
       </c>
-      <c r="H55">
-        <v>8.4449995995972564</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>54</v>
       </c>
@@ -2156,11 +2056,8 @@
       <c r="G56">
         <v>0.27612206352611712</v>
       </c>
-      <c r="H56">
-        <v>12.17538011613447</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>55</v>
       </c>
@@ -2182,11 +2079,8 @@
       <c r="G57">
         <v>6.9037135004913555E-2</v>
       </c>
-      <c r="H57">
-        <v>14.46086833587702</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>56</v>
       </c>
@@ -2208,11 +2102,8 @@
       <c r="G58">
         <v>-6.1367947147959463E-2</v>
       </c>
-      <c r="H58">
-        <v>11.142509432272879</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>57</v>
       </c>
@@ -2234,11 +2125,8 @@
       <c r="G59">
         <v>-1.2345910671852549E-2</v>
       </c>
-      <c r="H59">
-        <v>16.607461728489781</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>58</v>
       </c>
@@ -2260,11 +2148,8 @@
       <c r="G60">
         <v>-4.2196279144625252E-2</v>
       </c>
-      <c r="H60">
-        <v>11.24696028644127</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>59</v>
       </c>
@@ -2280,11 +2165,8 @@
       <c r="E61">
         <v>0.1062433646275452</v>
       </c>
-      <c r="H61">
-        <v>9.6738803291496591</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>60</v>
       </c>
@@ -2303,11 +2185,8 @@
       <c r="G62">
         <v>0.13152397794435011</v>
       </c>
-      <c r="H62">
-        <v>10.89204088675754</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>61</v>
       </c>
@@ -2329,11 +2208,8 @@
       <c r="G63">
         <v>0.1935104970651651</v>
       </c>
-      <c r="H63">
-        <v>8.6605783312313775</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>62</v>
       </c>
@@ -2355,11 +2231,8 @@
       <c r="G64">
         <v>-1.580561215161445E-2</v>
       </c>
-      <c r="H64">
-        <v>9.3040809339527399</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>63</v>
       </c>
@@ -2381,11 +2254,8 @@
       <c r="G65">
         <v>4.2179470486654339E-2</v>
       </c>
-      <c r="H65">
-        <v>10.226720465664609</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>65</v>
       </c>
@@ -2407,11 +2277,8 @@
       <c r="G66">
         <v>7.752875874299113E-2</v>
       </c>
-      <c r="H66">
-        <v>10.184085793230309</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>66</v>
       </c>
@@ -2433,11 +2300,8 @@
       <c r="G67">
         <v>2.0168152148408839E-2</v>
       </c>
-      <c r="H67">
-        <v>7.0188588012922333</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>67</v>
       </c>
@@ -2459,11 +2323,8 @@
       <c r="G68">
         <v>0.23307583476627011</v>
       </c>
-      <c r="H68">
-        <v>9.8692746407558314</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="69" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>68</v>
       </c>
@@ -2483,11 +2344,8 @@
       <c r="G69">
         <v>0.16131300636022991</v>
       </c>
-      <c r="H69">
-        <v>11.588351329172021</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>69</v>
       </c>
@@ -2509,11 +2367,8 @@
       <c r="G70">
         <v>-8.2027477727761033E-2</v>
       </c>
-      <c r="H70">
-        <v>10.486828276158031</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>70</v>
       </c>
@@ -2535,11 +2390,8 @@
       <c r="G71">
         <v>-0.20263259159273869</v>
       </c>
-      <c r="H71">
-        <v>11.37272121210685</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>71</v>
       </c>
@@ -2561,11 +2413,8 @@
       <c r="G72">
         <v>0.22992537903301319</v>
       </c>
-      <c r="H72">
-        <v>12.96233675109991</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>72</v>
       </c>
@@ -2587,11 +2436,8 @@
       <c r="G73">
         <v>0.1018016675648311</v>
       </c>
-      <c r="H73">
-        <v>11.713948697269201</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>73</v>
       </c>
@@ -2613,11 +2459,8 @@
       <c r="G74">
         <v>0.2199442608510965</v>
       </c>
-      <c r="H74">
-        <v>7.6449826701202577</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>74</v>
       </c>
@@ -2639,11 +2482,8 @@
       <c r="G75">
         <v>-0.1456403516279246</v>
       </c>
-      <c r="H75">
-        <v>10.156309286689609</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
         <v>75</v>
       </c>
@@ -2662,11 +2502,8 @@
       <c r="F76">
         <v>-3.6328866099751722</v>
       </c>
-      <c r="H76">
-        <v>13.50241831454573</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
         <v>76</v>
       </c>
@@ -2685,11 +2522,8 @@
       <c r="G77">
         <v>6.9461295117024424E-2</v>
       </c>
-      <c r="H77">
-        <v>9.3769952219062578</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>77</v>
       </c>
@@ -2711,11 +2545,8 @@
       <c r="G78">
         <v>8.7954016604688823E-2</v>
       </c>
-      <c r="H78">
-        <v>10.391539399242919</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>78</v>
       </c>
@@ -2737,11 +2568,8 @@
       <c r="G79">
         <v>-0.13201241597649879</v>
       </c>
-      <c r="H79">
-        <v>8.7590167394418437</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>79</v>
       </c>
@@ -2763,11 +2591,8 @@
       <c r="G80">
         <v>-0.1383588354971656</v>
       </c>
-      <c r="H80">
-        <v>9.7420603006448037</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
         <v>80</v>
       </c>
@@ -2789,11 +2614,8 @@
       <c r="G81">
         <v>-8.9001136397197825E-2</v>
       </c>
-      <c r="H81">
-        <v>10.834027326751629</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
         <v>81</v>
       </c>
@@ -2815,11 +2637,8 @@
       <c r="G82">
         <v>0.14788043799743289</v>
       </c>
-      <c r="H82">
-        <v>11.538511413261579</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
         <v>82</v>
       </c>
@@ -2841,11 +2660,8 @@
       <c r="G83">
         <v>5.017293564530026E-2</v>
       </c>
-      <c r="H83">
-        <v>9.7955117376466756</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
         <v>83</v>
       </c>
@@ -2867,11 +2683,8 @@
       <c r="G84">
         <v>-5.9142672892723014E-3</v>
       </c>
-      <c r="H84">
-        <v>12.17559146493898</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
         <v>84</v>
       </c>
@@ -2893,11 +2706,8 @@
       <c r="G85">
         <v>-3.6099708130491508E-2</v>
       </c>
-      <c r="H85">
-        <v>10.07205040122227</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
         <v>85</v>
       </c>
@@ -2919,11 +2729,8 @@
       <c r="G86">
         <v>0.23930363201146171</v>
       </c>
-      <c r="H86">
-        <v>12.909112961951969</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
         <v>86</v>
       </c>
@@ -2944,9 +2751,6 @@
       </c>
       <c r="G87">
         <v>-4.2024902693801373E-2</v>
-      </c>
-      <c r="H87">
-        <v>10.702024482211311</v>
       </c>
     </row>
   </sheetData>
@@ -2958,11 +2762,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B057BA60-BE67-4827-8C76-4465E7588A47}">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B057BA60-BE67-4827-8C76-4465E7588A47}">
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2972,27 +2776,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s">
         <v>87</v>
       </c>
-      <c r="B1" t="s">
-        <v>94</v>
-      </c>
       <c r="D1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -3000,23 +2804,48 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="C3" s="9">
+        <v>0</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="12">
-        <v>0</v>
-      </c>
-      <c r="D3" s="12" t="s">
+      <c r="B5" t="s">
         <v>97</v>
       </c>
-      <c r="E3" s="12">
-        <v>1</v>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>